--- a/Archivos trabajo integrador/Project Charter.xlsx
+++ b/Archivos trabajo integrador/Project Charter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariano Ruarte\Desktop\Trabajo integrador\Archivos trabajo integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49F211-020F-4818-84CD-D71E3B28F45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF8AF06-FE18-4E68-B2BC-3274D5870919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="16220" windowHeight="11660" xr2:uid="{BCB3D12A-3168-4B09-8DE4-2D20F98C6272}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Project Charter</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Fecha de fin</t>
-  </si>
-  <si>
-    <t>10 de noviembre, 2023</t>
   </si>
   <si>
     <t>Empresa</t>
@@ -92,17 +89,48 @@
     <t>Ruarte Miqueas Nicolás</t>
   </si>
   <si>
-    <t>Ing. Carlos Cassaffousth</t>
+    <t>15 de noviembre, 2023</t>
+  </si>
+  <si>
+    <t>Jefe de proyecto</t>
   </si>
   <si>
     <t>El proyecto consistirá en la creación y entrega de una aplicación de software para dispositivos 
 de escritorio cuya funcionalidad es la de guardar y eliminar el registro de los alumnos del 
-instituto Ing. Carlos Cassaffousth</t>
+instituto Ing. Carlos Cassaffousth, además de poder revisar en cualquier momento el historial de registros.</t>
   </si>
   <si>
     <t xml:space="preserve">Las metas de este proyecto incluyen la reducción de costos de mantener el sistema de registros
-anterior, la mejora de la rápidez en la que se guardan y eliminan los datos de los alumnos y
+anterior, la mejora de la rápidez en la que se guardan y eliminan los datos de los alumnos y la reducción de tiempo para buscar un registro específico.
 </t>
+  </si>
+  <si>
+    <t>El entregable es una aplicación de software para escritorio que solo el colegio puede utilizar.</t>
+  </si>
+  <si>
+    <t>Restricciones y supuestos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restricciones  </t>
+  </si>
+  <si>
+    <t>Supuestos</t>
+  </si>
+  <si>
+    <t>Errores de código que estanquen el progreso del proyecto
+Elecciones presidenciales
+Feriados puentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto fijo
+Plazo de tiempo limitado
+Cortes imprevistos de luz o internet
+Demoras en la obtención de recursos informáticos
+</t>
+  </si>
+  <si>
+    <t>Secundario Ing. Carlos
+Cassaffousth</t>
   </si>
 </sst>
 </file>
@@ -118,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +159,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -257,46 +297,77 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,110 +389,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332301EF-9BF3-435B-9D35-D304A8806E7F}">
-  <dimension ref="A3:L31"/>
+  <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,420 +772,585 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="17" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="22"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="1:12" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="17" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="39"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="22"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="22"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="39"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="29">
+    <mergeCell ref="D7:F9"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:C22"/>
+    <mergeCell ref="A23:C26"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="J13:L15"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A10:C12"/>
+    <mergeCell ref="G10:I12"/>
+    <mergeCell ref="A13:C15"/>
+    <mergeCell ref="G13:I15"/>
+    <mergeCell ref="D13:F15"/>
     <mergeCell ref="A27:C30"/>
     <mergeCell ref="D27:L30"/>
-    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:C6"/>
     <mergeCell ref="G4:I6"/>
     <mergeCell ref="D4:F6"/>
@@ -1170,17 +1358,10 @@
     <mergeCell ref="J4:L6"/>
     <mergeCell ref="J7:L9"/>
     <mergeCell ref="D10:F12"/>
-    <mergeCell ref="D7:F9"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A19:C22"/>
-    <mergeCell ref="A23:C26"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="G7:I9"/>
-    <mergeCell ref="A10:C12"/>
-    <mergeCell ref="G10:I12"/>
-    <mergeCell ref="A13:C15"/>
-    <mergeCell ref="G13:I15"/>
-    <mergeCell ref="D13:F15"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L38"/>
+    <mergeCell ref="A34:F38"/>
     <mergeCell ref="D19:L22"/>
     <mergeCell ref="D23:L26"/>
   </mergeCells>

--- a/Archivos trabajo integrador/Project Charter.xlsx
+++ b/Archivos trabajo integrador/Project Charter.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariano Ruarte\Desktop\Trabajo integrador\Archivos trabajo integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\trabajoIntegrador-main\Archivos trabajo integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF8AF06-FE18-4E68-B2BC-3274D5870919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="16220" windowHeight="11660" xr2:uid="{BCB3D12A-3168-4B09-8DE4-2D20F98C6272}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,10 +77,6 @@
     <t>Entregables</t>
   </si>
   <si>
-    <t>Secundario Ing. Carlos
-Cassafousth</t>
-  </si>
-  <si>
     <t>Tiempo: Plazo hasta el 15 de noviembre
 Dinero: Presupuesto fijo</t>
   </si>
@@ -132,11 +127,14 @@
     <t>Secundario Ing. Carlos
 Cassaffousth</t>
   </si>
+  <si>
+    <t>Ministerio de Educación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,6 +306,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,126 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,235 +757,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332301EF-9BF3-435B-9D35-D304A8806E7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="25" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="34" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-    </row>
-    <row r="7" spans="1:12" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1001,7 +999,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1015,203 +1013,203 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1225,123 +1223,122 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="49"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="15"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="15"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="15"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D7:F9"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A19:C22"/>
-    <mergeCell ref="A23:C26"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="G7:I9"/>
-    <mergeCell ref="J13:L15"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L38"/>
+    <mergeCell ref="A34:F38"/>
+    <mergeCell ref="D19:L22"/>
+    <mergeCell ref="D23:L26"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A32:L32"/>
     <mergeCell ref="A10:C12"/>
@@ -1358,12 +1355,13 @@
     <mergeCell ref="J4:L6"/>
     <mergeCell ref="J7:L9"/>
     <mergeCell ref="D10:F12"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L38"/>
-    <mergeCell ref="A34:F38"/>
-    <mergeCell ref="D19:L22"/>
-    <mergeCell ref="D23:L26"/>
+    <mergeCell ref="D7:F9"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:C22"/>
+    <mergeCell ref="A23:C26"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="J13:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Archivos trabajo integrador/Project Charter.xlsx
+++ b/Archivos trabajo integrador/Project Charter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\trabajoIntegrador-main\Archivos trabajo integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariano Ruarte\Desktop\Trabajo integrador\Archivos trabajo integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16EEF3-9E1D-4791-90B6-493618B62DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="16220" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -134,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,10 +296,116 @@
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -333,117 +434,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,588 +750,591 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:L12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="23" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="28" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
-    </row>
-    <row r="7" spans="1:12" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="22" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="25" t="s">
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="35" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="22" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="35" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="25" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="35" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="35" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="25" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="49"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="35" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="40"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="43"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L38"/>
-    <mergeCell ref="A34:F38"/>
-    <mergeCell ref="D19:L22"/>
-    <mergeCell ref="D23:L26"/>
+  <mergeCells count="32">
+    <mergeCell ref="D7:F9"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:C22"/>
+    <mergeCell ref="A23:C26"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="G7:I9"/>
+    <mergeCell ref="J13:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A32:L32"/>
     <mergeCell ref="A10:C12"/>
@@ -1355,13 +1351,13 @@
     <mergeCell ref="J4:L6"/>
     <mergeCell ref="J7:L9"/>
     <mergeCell ref="D10:F12"/>
-    <mergeCell ref="D7:F9"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A19:C22"/>
-    <mergeCell ref="A23:C26"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="G7:I9"/>
-    <mergeCell ref="J13:L15"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L38"/>
+    <mergeCell ref="A34:F38"/>
+    <mergeCell ref="D19:L22"/>
+    <mergeCell ref="D23:L26"/>
+    <mergeCell ref="A31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
